--- a/assets/datadashboard/GAS anchor.xlsx
+++ b/assets/datadashboard/GAS anchor.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7245"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="21420" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="125725" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -576,12 +581,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,15 +633,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -931,18 +936,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1188,9 +1193,6 @@
       <c r="B23" s="3">
         <v>23366</v>
       </c>
-      <c r="C23" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -1699,9 +1701,6 @@
       <c r="B70" s="3">
         <v>3093.5360000000001</v>
       </c>
-      <c r="C70" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
@@ -1710,9 +1709,6 @@
       <c r="B71" s="3">
         <v>3997</v>
       </c>
-      <c r="C71" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
@@ -1721,9 +1717,6 @@
       <c r="B72" s="3">
         <v>17780</v>
       </c>
-      <c r="C72" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
@@ -1732,9 +1725,6 @@
       <c r="B73" s="3">
         <v>7724.57</v>
       </c>
-      <c r="C73" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
@@ -1743,9 +1733,6 @@
       <c r="B74" s="3">
         <v>5308.299</v>
       </c>
-      <c r="C74" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
@@ -1754,9 +1741,6 @@
       <c r="B75" s="3">
         <v>232656.45600000001</v>
       </c>
-      <c r="C75" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
@@ -1765,9 +1749,6 @@
       <c r="B76" s="3">
         <v>52583.542000000001</v>
       </c>
-      <c r="C76" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
@@ -1776,20 +1757,12 @@
       <c r="B77" s="3">
         <v>2278.0680000000002</v>
       </c>
-      <c r="C77" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C78" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
@@ -1798,9 +1771,6 @@
       <c r="B79" s="3">
         <v>29920</v>
       </c>
-      <c r="C79" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
@@ -1809,209 +1779,134 @@
       <c r="B80" s="3">
         <v>64350</v>
       </c>
-      <c r="C80" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="3">
         <v>62560</v>
       </c>
-      <c r="C81" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="4">
         <v>112320</v>
       </c>
-      <c r="C82" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="3">
         <v>13500</v>
       </c>
-      <c r="C83" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C84" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C85" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C86" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="3">
         <v>327</v>
       </c>
-      <c r="C87" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C88" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C89" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="3">
         <v>1782</v>
       </c>
-      <c r="C90" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="3">
         <v>2800</v>
       </c>
-      <c r="C91" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="3">
         <v>457</v>
       </c>
-      <c r="C92" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="3">
         <v>2450</v>
       </c>
-      <c r="C93" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C94" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C95" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C96" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C97" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="3">
         <v>1330.8</v>
       </c>
-      <c r="C98" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -2019,7 +1914,7 @@
         <v>1289.0266666666666</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -2027,7 +1922,7 @@
         <v>7180</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -2035,7 +1930,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -2043,7 +1938,7 @@
         <v>170.6</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -2051,7 +1946,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -2059,7 +1954,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -2067,7 +1962,7 @@
         <v>184.7</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -2075,7 +1970,7 @@
         <v>1463.7850000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -2083,7 +1978,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -2091,7 +1986,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -2099,7 +1994,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -2107,7 +2002,7 @@
         <v>80.87</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -2115,7 +2010,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -2355,76 +2250,46 @@
         <v>674</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="B142" s="5"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="B143" s="5"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="B144" s="5"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="5"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="5"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="5"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="5"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="5"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="5"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="5"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="5"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="5"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="5"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="5"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/assets/datadashboard/GAS anchor.xlsx
+++ b/assets/datadashboard/GAS anchor.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="21420" windowHeight="12420"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="125725" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="324">
   <si>
     <t>Nama Anchor</t>
   </si>
@@ -576,17 +576,434 @@
   </si>
   <si>
     <t>CIMB, Citi, UBS, JPM, ANZ</t>
+  </si>
+  <si>
+    <t>Krakatau Steel</t>
+  </si>
+  <si>
+    <t>Adhi Karya</t>
+  </si>
+  <si>
+    <t>Gunung Steel</t>
+  </si>
+  <si>
+    <t>P Perumahan</t>
+  </si>
+  <si>
+    <t>Waskita Karya</t>
+  </si>
+  <si>
+    <t>Wijaya Karya</t>
+  </si>
+  <si>
+    <t>Indomaret</t>
+  </si>
+  <si>
+    <t>Indomobil</t>
+  </si>
+  <si>
+    <t>Mayora</t>
+  </si>
+  <si>
+    <t>Salim</t>
+  </si>
+  <si>
+    <t>Argo Manunggal</t>
+  </si>
+  <si>
+    <t>Tigaraksa</t>
+  </si>
+  <si>
+    <t>Tudung</t>
+  </si>
+  <si>
+    <t>Astra</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Trakindo</t>
+  </si>
+  <si>
+    <t>Djarum</t>
+  </si>
+  <si>
+    <t>Pura Barutama</t>
+  </si>
+  <si>
+    <t>Gudang Garam</t>
+  </si>
+  <si>
+    <t>Kapal Api</t>
+  </si>
+  <si>
+    <t>Maspion</t>
+  </si>
+  <si>
+    <t>Sumber Alfaria*</t>
+  </si>
+  <si>
+    <t>Lion Air</t>
+  </si>
+  <si>
+    <t>Pemb Jaya</t>
+  </si>
+  <si>
+    <t>Pertamina</t>
+  </si>
+  <si>
+    <t>PGN</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>Antam</t>
+  </si>
+  <si>
+    <t>T Bukit Asam</t>
+  </si>
+  <si>
+    <t>Tambang Timah</t>
+  </si>
+  <si>
+    <t>Jasa Marga</t>
+  </si>
+  <si>
+    <t>Kalbe Farma</t>
+  </si>
+  <si>
+    <t>Kompas</t>
+  </si>
+  <si>
+    <t>Ciputra</t>
+  </si>
+  <si>
+    <t>Indocement</t>
+  </si>
+  <si>
+    <t>Semen Ind</t>
+  </si>
+  <si>
+    <t>Vale Indonesia</t>
+  </si>
+  <si>
+    <t>Axiata</t>
+  </si>
+  <si>
+    <t>Indosat</t>
+  </si>
+  <si>
+    <t>Telkom</t>
+  </si>
+  <si>
+    <t>Trikomsel</t>
+  </si>
+  <si>
+    <t>Adaro</t>
+  </si>
+  <si>
+    <t>Holcim</t>
+  </si>
+  <si>
+    <t>Ganda</t>
+  </si>
+  <si>
+    <t>Puninar</t>
+  </si>
+  <si>
+    <t>Newmont</t>
+  </si>
+  <si>
+    <t>Unilever</t>
+  </si>
+  <si>
+    <t>HM Sampoerna</t>
+  </si>
+  <si>
+    <t>Wilmar</t>
+  </si>
+  <si>
+    <t>Dharma Polimetal</t>
+  </si>
+  <si>
+    <t>Bina Busana Int</t>
+  </si>
+  <si>
+    <t>RAPP</t>
+  </si>
+  <si>
+    <t>Sinar Mas</t>
+  </si>
+  <si>
+    <t>Incasi Raya</t>
+  </si>
+  <si>
+    <t>Rajawali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sungai Budi </t>
+  </si>
+  <si>
+    <t>Darmex Agro</t>
+  </si>
+  <si>
+    <t>Citra Borneo</t>
+  </si>
+  <si>
+    <t>Murdaya</t>
+  </si>
+  <si>
+    <t>Sampoerna Agro</t>
+  </si>
+  <si>
+    <t>JAPFA</t>
+  </si>
+  <si>
+    <t>PTPN 5</t>
+  </si>
+  <si>
+    <t>Permata H Sawit</t>
+  </si>
+  <si>
+    <t>PTPN 3</t>
+  </si>
+  <si>
+    <t>PTPN 4</t>
+  </si>
+  <si>
+    <t>Citramas</t>
+  </si>
+  <si>
+    <t>Medco</t>
+  </si>
+  <si>
+    <t>Teladan</t>
+  </si>
+  <si>
+    <t>Angkasa Pura I</t>
+  </si>
+  <si>
+    <t>ANGKASA PURA II</t>
+  </si>
+  <si>
+    <t>Kemenkeu</t>
+  </si>
+  <si>
+    <t>Pegadaian</t>
+  </si>
+  <si>
+    <t>Pelindo II</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>Pupuk Indonesia</t>
+  </si>
+  <si>
+    <t>Pos Indonesia</t>
+  </si>
+  <si>
+    <t>Kemen Agama</t>
+  </si>
+  <si>
+    <t>Kemen Kes</t>
+  </si>
+  <si>
+    <t>Kemen Diknas</t>
+  </si>
+  <si>
+    <t>Kemen PU</t>
+  </si>
+  <si>
+    <t>KemenHan</t>
+  </si>
+  <si>
+    <t>Bayan</t>
+  </si>
+  <si>
+    <t>Intraco Penta</t>
+  </si>
+  <si>
+    <t>APLUS</t>
+  </si>
+  <si>
+    <t>JICT</t>
+  </si>
+  <si>
+    <t>Sanken</t>
+  </si>
+  <si>
+    <t>Timas Suplindo</t>
+  </si>
+  <si>
+    <t>Voksel Electric</t>
+  </si>
+  <si>
+    <t>Hasnur</t>
+  </si>
+  <si>
+    <t>Kaldu S Nabati</t>
+  </si>
+  <si>
+    <t>Asia S Makmur</t>
+  </si>
+  <si>
+    <t>Tirta Amarta</t>
+  </si>
+  <si>
+    <t>Indotirta</t>
+  </si>
+  <si>
+    <t>Delta D Merlin</t>
+  </si>
+  <si>
+    <t>Indospring</t>
+  </si>
+  <si>
+    <t>Langgeng Makmur</t>
+  </si>
+  <si>
+    <t>Samator</t>
+  </si>
+  <si>
+    <t>BPJS Kesehatan</t>
+  </si>
+  <si>
+    <t>BPJS Ketenagakerjaan</t>
+  </si>
+  <si>
+    <t>Kemen ESDM &amp; SKK</t>
+  </si>
+  <si>
+    <t>Aviastar Mandiri</t>
+  </si>
+  <si>
+    <t>Citra Baru Steel</t>
+  </si>
+  <si>
+    <t>Duta Adhikarya</t>
+  </si>
+  <si>
+    <t>Dwi Aneka J.K.</t>
+  </si>
+  <si>
+    <t>Kawan Lama</t>
+  </si>
+  <si>
+    <t>Mesisdo Putra</t>
+  </si>
+  <si>
+    <t>Nusa Prima</t>
+  </si>
+  <si>
+    <t>Paragon Tech</t>
+  </si>
+  <si>
+    <t>Pongs Indonesia</t>
+  </si>
+  <si>
+    <t>Power Steel</t>
+  </si>
+  <si>
+    <t>Sarana Gastekindo</t>
+  </si>
+  <si>
+    <t>Sentra Baruna</t>
+  </si>
+  <si>
+    <t>Tiga Serangkai</t>
+  </si>
+  <si>
+    <t>Tjakrindo</t>
+  </si>
+  <si>
+    <t>Alisan</t>
+  </si>
+  <si>
+    <t>Balikpapan Ready</t>
+  </si>
+  <si>
+    <t>Indako</t>
+  </si>
+  <si>
+    <t>karya Jaya Mandiri</t>
+  </si>
+  <si>
+    <t>Mabar Feed</t>
+  </si>
+  <si>
+    <t>Mensa Binasukses</t>
+  </si>
+  <si>
+    <t>Nusantara Building</t>
+  </si>
+  <si>
+    <t>Pelnas BBS</t>
+  </si>
+  <si>
+    <t>Putra Tanjung</t>
+  </si>
+  <si>
+    <t>Rabbani Asysa</t>
+  </si>
+  <si>
+    <t>Suka Fajar</t>
+  </si>
+  <si>
+    <t>Teguh Metta</t>
+  </si>
+  <si>
+    <t>Armada</t>
+  </si>
+  <si>
+    <t>Asli Motor Klaten</t>
+  </si>
+  <si>
+    <t>Duniatex</t>
+  </si>
+  <si>
+    <t>Gerbang Nusa P</t>
+  </si>
+  <si>
+    <t>Kedawung</t>
+  </si>
+  <si>
+    <t>Matahari Sakti</t>
+  </si>
+  <si>
+    <t>Motasa Indonesia</t>
+  </si>
+  <si>
+    <t>Multiplast</t>
+  </si>
+  <si>
+    <t>Delta Pusaka I</t>
+  </si>
+  <si>
+    <t>Satriagraha</t>
+  </si>
+  <si>
+    <t>Sinargroup Indo</t>
+  </si>
+  <si>
+    <t>Sukses Jaya U</t>
+  </si>
+  <si>
+    <t>TA Disangka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,15 +1050,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -936,21 +1354,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1380,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -971,8 +1390,11 @@
       <c r="C2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -982,8 +1404,11 @@
       <c r="C3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1418,11 @@
       <c r="C4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1004,8 +1432,11 @@
       <c r="C5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1015,8 +1446,11 @@
       <c r="C6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1460,11 @@
       <c r="C7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1037,8 +1474,11 @@
       <c r="C8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1488,11 @@
       <c r="C9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1059,8 +1502,11 @@
       <c r="C10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1070,8 +1516,11 @@
       <c r="C11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1530,11 @@
       <c r="C12" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1092,8 +1544,11 @@
       <c r="C13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1103,8 +1558,11 @@
       <c r="C14" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1114,8 +1572,11 @@
       <c r="C15" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1125,8 +1586,11 @@
       <c r="C16" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1136,8 +1600,11 @@
       <c r="C17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1147,8 +1614,11 @@
       <c r="C18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1158,16 +1628,22 @@
       <c r="C19" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>55436</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1177,24 +1653,33 @@
       <c r="C21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>3072</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>23366</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1204,8 +1689,11 @@
       <c r="C24" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1215,8 +1703,11 @@
       <c r="C25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1226,8 +1717,11 @@
       <c r="C26" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1237,8 +1731,11 @@
       <c r="C27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1248,8 +1745,11 @@
       <c r="C28" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1259,8 +1759,11 @@
       <c r="C29" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1270,8 +1773,11 @@
       <c r="C30" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1281,8 +1787,11 @@
       <c r="C31" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1292,8 +1801,11 @@
       <c r="C32" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1303,8 +1815,11 @@
       <c r="C33" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1314,8 +1829,11 @@
       <c r="C34" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1325,8 +1843,11 @@
       <c r="C35" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1336,8 +1857,11 @@
       <c r="C36" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1347,8 +1871,11 @@
       <c r="C37" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1358,8 +1885,11 @@
       <c r="C38" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1369,8 +1899,11 @@
       <c r="C39" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1380,8 +1913,11 @@
       <c r="C40" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1391,8 +1927,11 @@
       <c r="C41" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1402,8 +1941,11 @@
       <c r="C42" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1413,8 +1955,11 @@
       <c r="C43" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1424,8 +1969,11 @@
       <c r="C44" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1435,16 +1983,22 @@
       <c r="C45" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="3">
         <v>965</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1454,8 +2008,11 @@
       <c r="C47" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1465,8 +2022,11 @@
       <c r="C48" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1476,8 +2036,11 @@
       <c r="C49" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1487,16 +2050,22 @@
       <c r="C50" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1506,8 +2075,11 @@
       <c r="C52" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1517,8 +2089,11 @@
       <c r="C53" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1528,8 +2103,11 @@
       <c r="C54" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1539,8 +2117,11 @@
       <c r="C55" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1550,8 +2131,11 @@
       <c r="C56" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1561,8 +2145,11 @@
       <c r="C57" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1572,8 +2159,11 @@
       <c r="C58" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1583,8 +2173,11 @@
       <c r="C59" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1594,8 +2187,11 @@
       <c r="C60" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1605,8 +2201,11 @@
       <c r="C61" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1616,8 +2215,11 @@
       <c r="C62" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1627,8 +2229,11 @@
       <c r="C63" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1638,8 +2243,11 @@
       <c r="C64" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1649,8 +2257,11 @@
       <c r="C65" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1660,8 +2271,11 @@
       <c r="C66" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1671,8 +2285,11 @@
       <c r="C67" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1682,8 +2299,11 @@
       <c r="C68" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1693,561 +2313,780 @@
       <c r="C69" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="3">
         <v>3093.5360000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="3">
         <v>3997</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="3">
         <v>17780</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="3">
         <v>7724.57</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="3">
         <v>5308.299</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="3">
         <v>232656.45600000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="3">
         <v>52583.542000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="3">
         <v>2278.0680000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="3">
         <v>29920</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="3">
         <v>64350</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="D80" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="3">
         <v>62560</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="D81" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="4">
         <v>112320</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="D82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="3">
         <v>13500</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="D84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="D85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="D86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="3">
         <v>327</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="D88" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="D89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="3">
         <v>1782</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="D90" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="D91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="3">
         <v>457</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="D92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="3">
         <v>2450</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="D93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="D94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="D95" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="D96" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="D97" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="3">
         <v>1330.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="D98" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="5">
         <v>1289.0266666666666</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="D99" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="5">
         <v>7180</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="D100" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="5">
         <v>15800</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="D101" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="5">
         <v>170.6</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="D102" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="5">
         <v>1213</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="D103" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="5">
         <v>698</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="D104" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="5">
         <v>184.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="D105" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="5">
         <v>1463.7850000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="D106" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="5">
         <v>528</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="D107" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="D108" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="5">
         <v>630</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="D109" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="5">
         <v>80.87</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="D110" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="5">
         <v>1949</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="D111" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="5">
         <v>120.51</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="D112" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="5">
         <v>550</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="D113" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="5">
         <v>195.74799999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="D114" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="5">
         <v>850</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="D115" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="D116" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B117" s="5">
         <v>420</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="D117" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B118" s="5">
         <v>1782</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="D118" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="5">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="D119" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="5">
         <v>822</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="D120" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="5">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="D121" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="5">
         <v>3000</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="D122" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="5">
         <v>816</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="D123" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B124" s="5">
         <v>65.930999999999997</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="D124" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="5">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="D125" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="5">
         <v>361.18</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="D126" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B127" s="5">
         <v>1.728</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="D127" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="5">
         <v>53.08</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="D128" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="5">
         <v>1495</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="D129" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B130" s="5">
         <v>270</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="D130" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="5">
         <v>13088</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="D131" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="D132" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B133" s="5">
         <v>1140</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="D133" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B134" s="5">
         <v>1270</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="D134" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="5">
         <v>181.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="D135" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B136" s="5">
         <v>1298</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="D136" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B137" s="5">
         <v>161</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="D137" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="5">
         <v>907</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="D138" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="5">
         <v>73</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="D139" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="5">
         <v>783.13</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="D140" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="5">
         <v>674</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2261,12 +3100,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2278,12 +3117,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/assets/datadashboard/GAS anchor.xlsx
+++ b/assets/datadashboard/GAS anchor.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -999,9 +999,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1052,7 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1060,6 +1061,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1358,15 +1361,14 @@
   <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D141"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1413,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>8109</v>
+        <v>7936.3612499999999</v>
       </c>
       <c r="C4" t="s">
         <v>145</v>
@@ -1496,8 +1498,8 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>5112</v>
+      <c r="B10" s="7">
+        <v>17590</v>
       </c>
       <c r="C10" t="s">
         <v>148</v>
@@ -1524,8 +1526,8 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>1513</v>
+      <c r="B12" s="4">
+        <v>2895</v>
       </c>
       <c r="C12" t="s">
         <v>150</v>
@@ -1538,8 +1540,8 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>7498</v>
+      <c r="B13" s="4">
+        <v>8198.1299999999992</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -1552,8 +1554,8 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
+      <c r="B14" s="4">
+        <v>7500</v>
       </c>
       <c r="C14" t="s">
         <v>148</v>
@@ -1594,7 +1596,7 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="8">
         <v>31995</v>
       </c>
       <c r="C17" t="s">
@@ -1608,8 +1610,8 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>26383.886999999999</v>
+      <c r="B18" s="4">
+        <v>33079.167000000001</v>
       </c>
       <c r="C18" t="s">
         <v>154</v>
@@ -1622,8 +1624,8 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>2923</v>
+      <c r="B19" s="4">
+        <v>2541.0459999999998</v>
       </c>
       <c r="C19" t="s">
         <v>155</v>
@@ -1636,8 +1638,8 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>55436</v>
+      <c r="B20" s="4">
+        <v>59810</v>
       </c>
       <c r="D20" t="s">
         <v>203</v>
@@ -1647,8 +1649,8 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>7942</v>
+      <c r="B21" s="4">
+        <v>10000</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
@@ -1661,8 +1663,8 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>3072</v>
+      <c r="B22" s="4">
+        <v>6000</v>
       </c>
       <c r="D22" t="s">
         <v>205</v>
@@ -1672,8 +1674,8 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>23366</v>
+      <c r="B23" s="4">
+        <v>34897.258999999998</v>
       </c>
       <c r="D23" t="s">
         <v>206</v>
@@ -1697,8 +1699,8 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>5225.1689999999999</v>
+      <c r="B25" s="4">
+        <v>6156</v>
       </c>
       <c r="C25" t="s">
         <v>156</v>
@@ -1711,8 +1713,8 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <v>86900</v>
+      <c r="B26" s="4">
+        <v>888776</v>
       </c>
       <c r="C26" t="s">
         <v>144</v>
@@ -1725,8 +1727,8 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <v>36700</v>
+      <c r="B27" s="4">
+        <v>35110</v>
       </c>
       <c r="C27" t="s">
         <v>157</v>
@@ -1739,8 +1741,8 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <v>22300</v>
+      <c r="B28" s="4">
+        <v>22338</v>
       </c>
       <c r="C28" t="s">
         <v>158</v>
@@ -1753,8 +1755,8 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>11300</v>
+      <c r="B29" s="4">
+        <v>11298</v>
       </c>
       <c r="C29" t="s">
         <v>159</v>
@@ -1767,8 +1769,8 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>11200</v>
+      <c r="B30" s="4">
+        <v>11209</v>
       </c>
       <c r="C30" t="s">
         <v>160</v>
@@ -1781,8 +1783,8 @@
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>5900</v>
+      <c r="B31" s="4">
+        <v>9088.4240000000009</v>
       </c>
       <c r="C31" t="s">
         <v>161</v>
@@ -1795,8 +1797,8 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <v>10300</v>
+      <c r="B32" s="4">
+        <v>10295</v>
       </c>
       <c r="C32" t="s">
         <v>147</v>
@@ -1809,8 +1811,8 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <v>16000</v>
+      <c r="B33" s="4">
+        <v>16002.131057048</v>
       </c>
       <c r="C33" t="s">
         <v>162</v>
@@ -1823,7 +1825,7 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="8">
         <v>26383</v>
       </c>
       <c r="C34" t="s">
@@ -1837,8 +1839,8 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
-        <v>3322</v>
+      <c r="B35" s="4">
+        <v>5077</v>
       </c>
       <c r="C35" t="s">
         <v>163</v>
@@ -1851,8 +1853,8 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
-        <v>17000</v>
+      <c r="B36" s="4">
+        <v>18690</v>
       </c>
       <c r="C36" t="s">
         <v>164</v>
@@ -1865,8 +1867,8 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
-        <v>24500</v>
+      <c r="B37" s="4">
+        <v>24501</v>
       </c>
       <c r="C37" t="s">
         <v>146</v>
@@ -1893,7 +1895,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="8">
         <v>21265</v>
       </c>
       <c r="C39" t="s">
@@ -1921,7 +1923,7 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="8">
         <v>82967</v>
       </c>
       <c r="C41" t="s">
@@ -1935,7 +1937,7 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="8">
         <v>10367</v>
       </c>
       <c r="C42" t="s">
@@ -1949,8 +1951,8 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
-        <v>40043</v>
+      <c r="B43" s="4">
+        <v>34912.870000000003</v>
       </c>
       <c r="C43" t="s">
         <v>169</v>
@@ -1991,7 +1993,7 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="8">
         <v>965</v>
       </c>
       <c r="D46" t="s">
@@ -2003,7 +2005,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4">
-        <v>6375</v>
+        <v>21788.976699999999</v>
       </c>
       <c r="C47" t="s">
         <v>171</v>
@@ -2016,7 +2018,7 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="8">
         <v>30757</v>
       </c>
       <c r="C48" t="s">
@@ -2030,7 +2032,7 @@
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="8">
         <v>75025</v>
       </c>
       <c r="C49" t="s">
@@ -2044,7 +2046,7 @@
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="8">
         <v>91546</v>
       </c>
       <c r="C50" t="s">
@@ -2058,7 +2060,7 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="8">
         <v>1000</v>
       </c>
       <c r="D51" t="s">
@@ -2069,7 +2071,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="8">
         <v>388.7</v>
       </c>
       <c r="C52" t="s">
@@ -2083,8 +2085,8 @@
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
-        <v>13647</v>
+      <c r="B53" s="4">
+        <v>22102</v>
       </c>
       <c r="C53" t="s">
         <v>174</v>
@@ -2097,8 +2099,8 @@
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
-        <v>191000</v>
+      <c r="B54" s="4">
+        <v>255200</v>
       </c>
       <c r="C54" t="s">
         <v>175</v>
@@ -2111,8 +2113,8 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
-        <v>10713.941999999999</v>
+      <c r="B55" s="4">
+        <v>9175</v>
       </c>
       <c r="C55" t="s">
         <v>176</v>
@@ -2125,8 +2127,8 @@
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
-        <v>1424.5450000000001</v>
+      <c r="B56" s="4">
+        <v>2068.4839999999999</v>
       </c>
       <c r="C56" t="s">
         <v>147</v>
@@ -2139,7 +2141,7 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="8">
         <v>13272.495000000001</v>
       </c>
       <c r="C57" t="s">
@@ -2153,8 +2155,8 @@
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
-        <v>4783.7470000000003</v>
+      <c r="B58" s="4">
+        <v>5630</v>
       </c>
       <c r="C58" t="s">
         <v>178</v>
@@ -2167,8 +2169,8 @@
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
-        <v>1902.1410000000001</v>
+      <c r="B59" s="4">
+        <v>2554</v>
       </c>
       <c r="C59" t="s">
         <v>144</v>
@@ -2181,8 +2183,8 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
-        <v>5960.625</v>
+      <c r="B60" s="4">
+        <v>10000</v>
       </c>
       <c r="C60" t="s">
         <v>154</v>
@@ -2195,8 +2197,8 @@
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
-        <v>2986.2369739999999</v>
+      <c r="B61" s="4">
+        <v>2561</v>
       </c>
       <c r="C61" t="s">
         <v>144</v>
@@ -2209,8 +2211,8 @@
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
-        <v>17832.702000000001</v>
+      <c r="B62" s="4">
+        <v>21412</v>
       </c>
       <c r="C62" t="s">
         <v>179</v>
@@ -2279,8 +2281,8 @@
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
-        <v>3500</v>
+      <c r="B67" s="4">
+        <v>3324.9642835</v>
       </c>
       <c r="C67" t="s">
         <v>182</v>
@@ -2293,8 +2295,8 @@
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
-        <v>10900</v>
+      <c r="B68" s="4">
+        <v>10235</v>
       </c>
       <c r="C68" t="s">
         <v>183</v>
@@ -2307,8 +2309,8 @@
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
-        <v>9637.5</v>
+      <c r="B69" s="4">
+        <v>14881.402000000002</v>
       </c>
       <c r="C69" t="s">
         <v>184</v>
@@ -2409,7 +2411,9 @@
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D78" t="s">
         <v>261</v>
       </c>
@@ -2473,7 +2477,9 @@
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D84" t="s">
         <v>267</v>
       </c>
@@ -2482,7 +2488,9 @@
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D85" t="s">
         <v>268</v>
       </c>
@@ -2491,7 +2499,9 @@
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="3"/>
+      <c r="B86" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D86" t="s">
         <v>269</v>
       </c>
@@ -2511,7 +2521,9 @@
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="3"/>
+      <c r="B88" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D88" t="s">
         <v>271</v>
       </c>
@@ -2520,7 +2532,9 @@
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="3"/>
+      <c r="B89" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D89" t="s">
         <v>272</v>
       </c>
@@ -2573,7 +2587,9 @@
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="3"/>
+      <c r="B94" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D94" t="s">
         <v>277</v>
       </c>
@@ -2582,7 +2598,9 @@
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="3"/>
+      <c r="B95" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D95" t="s">
         <v>278</v>
       </c>
@@ -2591,7 +2609,9 @@
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="3"/>
+      <c r="B96" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D96" t="s">
         <v>279</v>
       </c>
@@ -2600,7 +2620,9 @@
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="3"/>
+      <c r="B97" s="3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="D97" t="s">
         <v>280</v>
       </c>
@@ -3085,7 +3107,7 @@
       <c r="B141" s="5">
         <v>674</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="C141" s="6" t="s">
         <v>323</v>
       </c>
     </row>
